--- a/plan/exercise/2016/12.xlsx
+++ b/plan/exercise/2016/12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>项目</t>
   </si>
@@ -39,66 +39,32 @@
   <si>
     <t>5 6:30-7:20</t>
   </si>
+  <si>
+    <t>晴</t>
+  </si>
+  <si>
+    <t>50俯卧撑，20仰卧</t>
+  </si>
+  <si>
+    <t>6 6:30-7:20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -110,37 +76,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -149,8 +84,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,14 +189,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -181,7 +198,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,22 +206,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,19 +221,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,157 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,6 +412,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,9 +456,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,32 +498,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -515,154 +517,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1011,16 +1016,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1037,12 +1043,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="67.5" spans="1:2">
+    <row r="2" ht="67.5" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="67.5" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/plan/exercise/2016/12.xlsx
+++ b/plan/exercise/2016/12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>项目</t>
   </si>
@@ -48,6 +48,13 @@
   <si>
     <t>6 6:30-7:20</t>
   </si>
+  <si>
+    <t>50俯卧撑，40仰卧
+40上下蹲</t>
+  </si>
+  <si>
+    <t>7 6:30-7:20</t>
+  </si>
 </sst>
 </file>
 
@@ -69,6 +76,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -77,31 +92,97 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,73 +190,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,22 +204,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -221,13 +228,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,169 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,21 +432,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -450,17 +442,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,24 +461,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -512,6 +475,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -520,10 +527,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,133 +539,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,13 +1023,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
@@ -1057,12 +1064,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="67.5" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="67.5" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="67.5" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/plan/exercise/2016/12.xlsx
+++ b/plan/exercise/2016/12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>项目</t>
   </si>
@@ -55,6 +55,10 @@
   <si>
     <t>7 6:30-7:20</t>
   </si>
+  <si>
+    <t>40俯卧撑，40仰卧
+60上下蹲</t>
+  </si>
 </sst>
 </file>
 
@@ -75,6 +79,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -84,6 +111,82 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -93,73 +196,19 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -168,52 +217,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,25 +244,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,145 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,6 +450,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -457,6 +470,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,35 +506,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,133 +543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,13 +1027,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
@@ -1074,16 +1078,27 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="67.5" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="67.5" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="67.5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/plan/exercise/2016/12.xlsx
+++ b/plan/exercise/2016/12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>项目</t>
   </si>
@@ -58,6 +58,16 @@
   <si>
     <t>40俯卧撑，40仰卧
 60上下蹲</t>
+  </si>
+  <si>
+    <t>8 6:30-7:20</t>
+  </si>
+  <si>
+    <t>俯卧撑，指，掌各20个
+仰卧40次
+上下蹲60次
+左右手直拳各20次
+左右腿膝各20次</t>
   </si>
 </sst>
 </file>
@@ -79,16 +89,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,6 +129,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -110,7 +212,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -118,92 +219,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,13 +228,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,13 +242,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,19 +344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,7 +362,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,109 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,6 +433,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,23 +471,25 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -489,28 +510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,19 +553,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,100 +574,100 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,7 +676,7 @@
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1027,13 +1037,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
@@ -1092,13 +1102,27 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="67.5" spans="1:1">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="67.5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" ht="67.5" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/plan/exercise/2016/12.xlsx
+++ b/plan/exercise/2016/12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>项目</t>
   </si>
@@ -68,6 +68,13 @@
 上下蹲60次
 左右手直拳各20次
 左右腿膝各20次</t>
+  </si>
+  <si>
+    <t>9 7:20-7:30</t>
+  </si>
+  <si>
+    <t>40俯卧撑，40仰卧
+20上下蹲</t>
   </si>
 </sst>
 </file>
@@ -75,8 +82,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -97,9 +104,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,30 +130,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,40 +172,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +187,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -219,15 +232,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,13 +249,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,145 +393,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +462,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -465,17 +487,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,21 +502,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,6 +529,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -541,10 +548,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,121 +560,121 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1037,13 +1044,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
@@ -1117,12 +1124,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="67.5" spans="1:2">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="67.5" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>9</v>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="67.5" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/plan/exercise/2016/12.xlsx
+++ b/plan/exercise/2016/12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>项目</t>
   </si>
@@ -75,6 +75,9 @@
   <si>
     <t>40俯卧撑，40仰卧
 20上下蹲</t>
+  </si>
+  <si>
+    <t>14 6:30-7:20</t>
   </si>
 </sst>
 </file>
@@ -82,10 +85,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -96,11 +99,102 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,9 +206,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,84 +229,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,28 +238,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,61 +252,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,121 +420,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,35 +446,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,36 +472,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,6 +495,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -548,10 +551,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,133 +563,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,16 +1047,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1134,13 +1137,31 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" ht="67.5" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8" ht="67.5" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" ht="67.5" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" ht="67.5" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
